--- a/meta/11-5-1.xlsx
+++ b/meta/11-5-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -94,64 +94,420 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t xml:space="preserve">Цель 11. Обеспечение открытости, безопасности, жизнестойкости и экологической устойчивости городов, и населенных пунктах </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5 К 2030 году существенно сократить число погибших и пострадавших и значительно уменьшить прямой экономический ущерб в виде потерь мирового валового внутреннего продукта в результате бедствий, в том числе связанных с водой, уделяя особое внимание защите малоимущих и уязвимых групп населения </t>
+    <t xml:space="preserve">МЧС ежегодно предоставляет информацию в сводном виде по форме статистической отчетности №1-ЧС </t>
+  </si>
+  <si>
+    <t>Министерство чрезвычайных ситуаций КР, Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды)</t>
+  </si>
+  <si>
+    <t>МЧС: Кадырова Г.Б./ Мамбетов А.М.; НСК: Керималиева Н.К</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЧС: k-gulshat-b@mail.ru; НСК: Sdg_nsc@stat.kg </t>
+  </si>
+  <si>
+    <t>МЧС: (0312) 56-86-32; НСК: (0312) 32 46 91</t>
+  </si>
+  <si>
+    <t>МЧС: http://ru.mes.kg/ ; НСК: www.stat.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Погибшие: число людей, погибших во время бедствия или непосредственно последнего, в результате опасного события.
+Пропавшие: число людей, местонахождение которых неизвестно с момента возникновения опасного события. Сюда относятся люди, которые считаются погибшими, о которых нет никаких физических доказательств, таких как тело, и касательно которых был подан в компетентные органы официальный/юридический отчет.
+Пострадавшие: люди, которые прямо или косвенно пострадали от опасного события.
+Непосредственно пострадавшие: люди, которые пострадали от травм, болезней или других последствий для здоровья; которые были эвакуированы, переселены, передислоцированы или понесли прямой ущерб жизнедеятельности, экономическим, материальным, социальным, культурным и экологическим ресурсам.
+Косвенно пострадавшие: люди, пострадавшие от последствий, помимо или в дополнение к прямым последствиям, с течением времени из-за сбоев или изменений в экономике, важнейших инфраструктур, основных видов услуг, торговли, труда или социальных, медицинских и психологических последствий.
+Определения взяты из «Технического руководства по мониторингу и представлению отчетности о прогрессе в области достижения глобальных целевых задач в рамках Сендайской рамочной программы по снижению риска бедствий», разработанного Межправительственной рабочей группы экспертов открытого состава по работе с показателями и терминологией о снижении риска бедствий (МРГОС) и одобренного Генеральной Ассамблеей Организации Объединенных Наций в резолюции A/RES/71/276, БСРБ ООН.
+</t>
+  </si>
+  <si>
+    <t>На данные о смертности в результате стихийных бедствий значительно влияют крупномасштабные катастрофические события, представляющие собой важные исключения с точки зрения смертности, так как они обычно подразумевают значительное число убитых людей. МСУОБ ООН рекомендует странам сообщать данные о событиях, поэтому дополнительный анализ для определения настоящих тенденций может быть сделан как путем включения, так и исключения таких катастрофических событий, которые представляют собой важные исключения с точки зрения смертности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данные по погибшим, пропавшим без вести и пострадавшим заполняются в государственной статистической отчетности Форме №1-ЧС из Типового акта Комиссии Гражданской защиты. 
+  Типовой акт Комиссии ГЗ составляется и заполняется после каждого случая ЧС, районные и городские отделы МЧС на основе Типового акта Комиссии ГЗ параллельно заполняют Форму №1-ЧС. 
+  Далее, обобщают Форму №1-ЧС за месяц по нарастающей и направляют заполненные Формы №1-ЧС в Управления МЧС областей, гг. Бишкек и Ош для обобщения за область (город). В случае отсутствия факта возникновения ЧС в текущем месяце Форма №1-ЧС формируется в месяц возникновения ЧС.
+  Управления МЧС областей, гг. Бишкек и Ош представляют обобщенные Формы №1-ЧС в Центр управления кризисными ситуациями при МЧС КР (далее ЦУКС) – 1 раз в полугодие – 30 июля и 30 января.
+  ЦУКС при МЧС КР направляет заполненную Форму №1-ЧС в сводном виде (область, город, район):
+ - один раз в год в Нацстатком КР;
+ - в Секретариат Национальной платформы по СРБ до 1 октября и до 1 марта следующего за отчетный период.
+  Секретариат Национальной платформы по СРБ Кыргызской Республики вносит данные из Формы №1-ЧС, представленные ЦУКС при МЧС КР, с добавлением дополнительных данных из официального сайта Нацстаткома КР в онлайн-отчетность мониторинга реализации Сендайской программы до 31 октября и 31 марта, следующего за отчетный период.
+</t>
+  </si>
+  <si>
+    <t>Дезагрегация проводится по возрасту, полу, инвалидности.</t>
+  </si>
+  <si>
+    <r>
+      <t>Показатель А-1 – составной показатель простого суммирования числа погибших и пропавших без вести, разделенных на данные по населению.
+А-1 - число погибших и пропавших без вести в результате бедствий на 100 000 человек (составной показатель)
+А-2 - число погибших в результате бедствий на 100 000 человек
+А-3 - число пропавших без вести в результате бедствий на 100 000 человек 
+А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2а</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3а</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) *100,000/население
+А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =   А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2а</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *100,000/население 
+А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =   А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3а</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*100,000/население
+А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>𝟏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + А</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Показатель В-1 - составной показатель простого суммирования соответствующих показателей по ущербу от бедствий, разделенных на сумму показателей данных населения:
+В-1 - число непосредственно пострадавших в результате бедствий на 100 000 человек (составной показатель).
+В-2 -число получивших увечья или пострадавших от болезней в результате бедствий
+В-3 - число людей, жилища которых были повреждены в результате бедствий
+В-4 - число людей, жилища которых были уничтожены в результате бедствий
+В -5 - число людей, средства к существованию которых пострадали или были уничтожены в результате бедствий
+В</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = сумма (В</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…В</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)*100,000/население
+Последнюю версия этой методологии можно получить по адресу:
+http://www.preventionweb.net/documents/oiewg/Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>В этом показателе, учитывая трудности, связанные с оценкой всего диапазона всех пострадавших (прямо и косвенно), МСУОБ ООН предлагает использовать показатель, который будет оценивать “непосредственно пострадавших” в качестве косвенного показателя для числа пострадавших. Этот показатель, пока что не идеальный, исходит из широкодоступных данных и может быть последовательно использован в разных странах и на протяжении времени для оценки достижения Цели B Сендайской рамочной программы.</t>
+  </si>
+  <si>
+    <t>В онлайн режиме на сайте мониторинга Сендая. https://sendaicommitments.unisdr.org 
+Отчетность по показателю представляется МЧС КР в Нацстатком КР государственную статистическую отчетность по Форме №1-ЧС, а также по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития</t>
+  </si>
+  <si>
+    <t>Страны представляют отчетные данные в систему онлайн мониторинга Сендайской рамочной программы. Заполнение данных проходит 3 уровня (автор, валидатор, национальный координатор), все данные отображаются в онлайн режиме на сайте мониторинга Сендая.
+МЧС КР, как государственный орган представляет в Нацстатком КР государственную статистическую отчетность по Форме №1-ЧС</t>
+  </si>
+  <si>
+    <t>Концепция комплексной защиты населения и территории Кыргызской Республики от чрезвычайных ситуаций на 2018-2030 годы, утверждена постановлением Правительства Кыргызской Республики от 29.01.2018 года №58. Концепция включает в себя все 4 приоритета Сендайской рамочной программы СРБ. Имеется связь Целей ЦУР с Сендайской рамочной программой СРБ по целям 1.5, 11.5 и 13.1.
+Данные сопоставимы и представляются данные в систему онлайн мониторинга Сендайской рамочной программы.</t>
+  </si>
+  <si>
+    <t>Сайт МЧС КР, http://ru.mes.kg/
+Сайт НСК КР, http://www.stat.kg/ru/, раздел ЦУР, Матрица инвентаризации и адаптации задач и показателей Целей устойчивого развития 
+Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>Цель 11. Обеспечение открытости, безопасности, жизнестойкости и экологической устойчивости городов, и населенных пунктах</t>
+  </si>
+  <si>
+    <t>11.5 К 2030 году существенно сократить число погибших и пострадавших и значительно уменьшить прямой экономический ущерб в виде потерь мирового валового внутреннего продукта в результате бедствий, в том числе связанных с водой, уделяя особое внимание защите малоимущих и уязвимых групп населения</t>
   </si>
   <si>
     <t>11.5.1. Число погибших в результате бедствий</t>
   </si>
   <si>
-    <t>Национальный статистический комитет (Управление статистики устойчивого развития и окружающей среды)</t>
-  </si>
-  <si>
-    <t>Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
-    <t>Погибшие: количество людей, погибших во время катастрофы или непосредственно после, как прямой результат опасных событий.</t>
-  </si>
-  <si>
-    <t>На данные о смертности в результате стихийных бедствий значительно влияют крупномасштабные катастрофические события, представляющие собой важные исключения с точки зрения смертности, так как они обычно подразумевают значительное число убитых людей.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЧС ежегодно предоставляет информацию в сводном виде по форме государственной статистической отчетности №1-ЧС </t>
-  </si>
-  <si>
-    <t>Предприятия и организации, органы местного самоуправления, города районного значения, представляют в местную государственную администрацию и районные отделы МЧС, далее в управления МЧС областей и города Бишкек, далее в МЧС КР.</t>
-  </si>
-  <si>
-    <t>Прямой счет о численности погибших в результате чрезвычайных ситуаций</t>
-  </si>
-  <si>
-    <t>Республика, в разрезе областей, по полу</t>
-  </si>
-  <si>
-    <t>Обеспечивается сопоставимость с международными стандартами</t>
-  </si>
-  <si>
-    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+    <t>11.5.1. Число погибших, пропавших без вести и пострадавших в результате бедствий на 100 000 человек соответствует показателям задач А и В Сендайской рамочной программы по снижению риска бедствий:
+  Задача A:К 2030 году существенно сократить число погибших и пострадавших и значительно уменьшить прямой экономический ущерб в виде потерь мирового валового внутреннего продукта в результате бедствий, в том числе связанных с водой, уделяя особое внимание защите малоимущих и уязвимых групп населения.
+  Задача B:К 2030 году сократить число погибших, пострадавших и значительно уменьшить прямой экономический ущерб в результате стихийных бедствий.
+  В методологии «Технического руководства по мониторингу и представлению отчетности о прогрессе в области достижения глобальных целевых задач в рамках Сендайской рамочной программы по снижению риска бедствий» используются показатели:
+ А-1 по погибшим и пропавшим без вести в результате бедствий;
+ В-1 по пострадавшему населению.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +527,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -218,29 +582,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -558,7 +930,7 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -572,24 +944,24 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
+      <c r="B3" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,40 +974,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,26 +1016,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="391.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>35</v>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,16 +1050,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -694,25 +1068,29 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -720,33 +1098,35 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
     </row>

--- a/meta/11-5-1.xlsx
+++ b/meta/11-5-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -94,412 +94,64 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t xml:space="preserve">МЧС ежегодно предоставляет информацию в сводном виде по форме статистической отчетности №1-ЧС </t>
-  </si>
-  <si>
-    <t>Министерство чрезвычайных ситуаций КР, Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды)</t>
-  </si>
-  <si>
-    <t>МЧС: Кадырова Г.Б./ Мамбетов А.М.; НСК: Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЧС: k-gulshat-b@mail.ru; НСК: Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>МЧС: (0312) 56-86-32; НСК: (0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>МЧС: http://ru.mes.kg/ ; НСК: www.stat.kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Погибшие: число людей, погибших во время бедствия или непосредственно последнего, в результате опасного события.
-Пропавшие: число людей, местонахождение которых неизвестно с момента возникновения опасного события. Сюда относятся люди, которые считаются погибшими, о которых нет никаких физических доказательств, таких как тело, и касательно которых был подан в компетентные органы официальный/юридический отчет.
-Пострадавшие: люди, которые прямо или косвенно пострадали от опасного события.
-Непосредственно пострадавшие: люди, которые пострадали от травм, болезней или других последствий для здоровья; которые были эвакуированы, переселены, передислоцированы или понесли прямой ущерб жизнедеятельности, экономическим, материальным, социальным, культурным и экологическим ресурсам.
-Косвенно пострадавшие: люди, пострадавшие от последствий, помимо или в дополнение к прямым последствиям, с течением времени из-за сбоев или изменений в экономике, важнейших инфраструктур, основных видов услуг, торговли, труда или социальных, медицинских и психологических последствий.
-Определения взяты из «Технического руководства по мониторингу и представлению отчетности о прогрессе в области достижения глобальных целевых задач в рамках Сендайской рамочной программы по снижению риска бедствий», разработанного Межправительственной рабочей группы экспертов открытого состава по работе с показателями и терминологией о снижении риска бедствий (МРГОС) и одобренного Генеральной Ассамблеей Организации Объединенных Наций в резолюции A/RES/71/276, БСРБ ООН.
-</t>
-  </si>
-  <si>
-    <t>На данные о смертности в результате стихийных бедствий значительно влияют крупномасштабные катастрофические события, представляющие собой важные исключения с точки зрения смертности, так как они обычно подразумевают значительное число убитых людей. МСУОБ ООН рекомендует странам сообщать данные о событиях, поэтому дополнительный анализ для определения настоящих тенденций может быть сделан как путем включения, так и исключения таких катастрофических событий, которые представляют собой важные исключения с точки зрения смертности.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данные по погибшим, пропавшим без вести и пострадавшим заполняются в государственной статистической отчетности Форме №1-ЧС из Типового акта Комиссии Гражданской защиты. 
-  Типовой акт Комиссии ГЗ составляется и заполняется после каждого случая ЧС, районные и городские отделы МЧС на основе Типового акта Комиссии ГЗ параллельно заполняют Форму №1-ЧС. 
-  Далее, обобщают Форму №1-ЧС за месяц по нарастающей и направляют заполненные Формы №1-ЧС в Управления МЧС областей, гг. Бишкек и Ош для обобщения за область (город). В случае отсутствия факта возникновения ЧС в текущем месяце Форма №1-ЧС формируется в месяц возникновения ЧС.
-  Управления МЧС областей, гг. Бишкек и Ош представляют обобщенные Формы №1-ЧС в Центр управления кризисными ситуациями при МЧС КР (далее ЦУКС) – 1 раз в полугодие – 30 июля и 30 января.
-  ЦУКС при МЧС КР направляет заполненную Форму №1-ЧС в сводном виде (область, город, район):
- - один раз в год в Нацстатком КР;
- - в Секретариат Национальной платформы по СРБ до 1 октября и до 1 марта следующего за отчетный период.
-  Секретариат Национальной платформы по СРБ Кыргызской Республики вносит данные из Формы №1-ЧС, представленные ЦУКС при МЧС КР, с добавлением дополнительных данных из официального сайта Нацстаткома КР в онлайн-отчетность мониторинга реализации Сендайской программы до 31 октября и 31 марта, следующего за отчетный период.
-</t>
-  </si>
-  <si>
-    <t>Дезагрегация проводится по возрасту, полу, инвалидности.</t>
-  </si>
-  <si>
-    <r>
-      <t>Показатель А-1 – составной показатель простого суммирования числа погибших и пропавших без вести, разделенных на данные по населению.
-А-1 - число погибших и пропавших без вести в результате бедствий на 100 000 человек (составной показатель)
-А-2 - число погибших в результате бедствий на 100 000 человек
-А-3 - число пропавших без вести в результате бедствий на 100 000 человек 
-А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2а</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3а</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) *100,000/население
-А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =   А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2а</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> *100,000/население 
-А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =   А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3а</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*100,000/население
-А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>𝟏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + А</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Показатель В-1 - составной показатель простого суммирования соответствующих показателей по ущербу от бедствий, разделенных на сумму показателей данных населения:
-В-1 - число непосредственно пострадавших в результате бедствий на 100 000 человек (составной показатель).
-В-2 -число получивших увечья или пострадавших от болезней в результате бедствий
-В-3 - число людей, жилища которых были повреждены в результате бедствий
-В-4 - число людей, жилища которых были уничтожены в результате бедствий
-В -5 - число людей, средства к существованию которых пострадали или были уничтожены в результате бедствий
-В</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = сумма (В</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…В</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)*100,000/население
-Последнюю версия этой методологии можно получить по адресу:
-http://www.preventionweb.net/documents/oiewg/Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>В этом показателе, учитывая трудности, связанные с оценкой всего диапазона всех пострадавших (прямо и косвенно), МСУОБ ООН предлагает использовать показатель, который будет оценивать “непосредственно пострадавших” в качестве косвенного показателя для числа пострадавших. Этот показатель, пока что не идеальный, исходит из широкодоступных данных и может быть последовательно использован в разных странах и на протяжении времени для оценки достижения Цели B Сендайской рамочной программы.</t>
-  </si>
-  <si>
-    <t>В онлайн режиме на сайте мониторинга Сендая. https://sendaicommitments.unisdr.org 
-Отчетность по показателю представляется МЧС КР в Нацстатком КР государственную статистическую отчетность по Форме №1-ЧС, а также по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития</t>
-  </si>
-  <si>
-    <t>Страны представляют отчетные данные в систему онлайн мониторинга Сендайской рамочной программы. Заполнение данных проходит 3 уровня (автор, валидатор, национальный координатор), все данные отображаются в онлайн режиме на сайте мониторинга Сендая.
-МЧС КР, как государственный орган представляет в Нацстатком КР государственную статистическую отчетность по Форме №1-ЧС</t>
-  </si>
-  <si>
-    <t>Концепция комплексной защиты населения и территории Кыргызской Республики от чрезвычайных ситуаций на 2018-2030 годы, утверждена постановлением Правительства Кыргызской Республики от 29.01.2018 года №58. Концепция включает в себя все 4 приоритета Сендайской рамочной программы СРБ. Имеется связь Целей ЦУР с Сендайской рамочной программой СРБ по целям 1.5, 11.5 и 13.1.
-Данные сопоставимы и представляются данные в систему онлайн мониторинга Сендайской рамочной программы.</t>
-  </si>
-  <si>
-    <t>Сайт МЧС КР, http://ru.mes.kg/
-Сайт НСК КР, http://www.stat.kg/ru/, раздел ЦУР, Матрица инвентаризации и адаптации задач и показателей Целей устойчивого развития 
-Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
-  </si>
-  <si>
-    <t>Цель 11. Обеспечение открытости, безопасности, жизнестойкости и экологической устойчивости городов, и населенных пунктах</t>
-  </si>
-  <si>
-    <t>11.5 К 2030 году существенно сократить число погибших и пострадавших и значительно уменьшить прямой экономический ущерб в виде потерь мирового валового внутреннего продукта в результате бедствий, в том числе связанных с водой, уделяя особое внимание защите малоимущих и уязвимых групп населения</t>
+    <t xml:space="preserve">Цель 11. Обеспечение открытости, безопасности, жизнестойкости и экологической устойчивости городов, и населенных пунктах </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5 К 2030 году существенно сократить число погибших и пострадавших и значительно уменьшить прямой экономический ущерб в виде потерь мирового валового внутреннего продукта в результате бедствий, в том числе связанных с водой, уделяя особое внимание защите малоимущих и уязвимых групп населения </t>
   </si>
   <si>
     <t>11.5.1. Число погибших в результате бедствий</t>
   </si>
   <si>
-    <t>11.5.1. Число погибших, пропавших без вести и пострадавших в результате бедствий на 100 000 человек соответствует показателям задач А и В Сендайской рамочной программы по снижению риска бедствий:
-  Задача A:К 2030 году существенно сократить число погибших и пострадавших и значительно уменьшить прямой экономический ущерб в виде потерь мирового валового внутреннего продукта в результате бедствий, в том числе связанных с водой, уделяя особое внимание защите малоимущих и уязвимых групп населения.
-  Задача B:К 2030 году сократить число погибших, пострадавших и значительно уменьшить прямой экономический ущерб в результате стихийных бедствий.
-  В методологии «Технического руководства по мониторингу и представлению отчетности о прогрессе в области достижения глобальных целевых задач в рамках Сендайской рамочной программы по снижению риска бедствий» используются показатели:
- А-1 по погибшим и пропавшим без вести в результате бедствий;
- В-1 по пострадавшему населению.</t>
+    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
+  </si>
+  <si>
+    <t>Погибшие: количество людей, погибших во время катастрофы или непосредственно после, как прямой результат опасных событий.</t>
+  </si>
+  <si>
+    <t>На данные о смертности в результате стихийных бедствий значительно влияют крупномасштабные катастрофические события, представляющие собой важные исключения с точки зрения смертности, так как они обычно подразумевают значительное число убитых людей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЧС ежегодно предоставляет информацию в сводном виде по форме государственной статистической отчетности №1-ЧС </t>
+  </si>
+  <si>
+    <t>Предприятия и организации, органы местного самоуправления, города районного значения, представляют в местную государственную администрацию и районные отделы МЧС, далее в управления МЧС областей и города Бишкек, далее в МЧС КР.</t>
+  </si>
+  <si>
+    <t>Прямой счет о численности погибших в результате чрезвычайных ситуаций</t>
+  </si>
+  <si>
+    <t>Республика, в разрезе областей, по полу</t>
+  </si>
+  <si>
+    <t>Обеспечивается сопоставимость с международными стандартами</t>
+  </si>
+  <si>
+    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет (Управление цифрового развития и статистики устойчивого развития)</t>
+  </si>
+  <si>
+    <t>Мамбеталиев Т.А.</t>
+  </si>
+  <si>
+    <t>(0312) 62 56 07</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,14 +179,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -582,38 +226,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -924,13 +568,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="76.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -944,24 +588,24 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>43</v>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,23 +618,23 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -998,16 +642,16 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
+      <c r="B10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,28 +660,26 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="391.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,16 +692,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1068,29 +710,25 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1098,36 +736,34 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
+      <c r="B26" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
